--- a/Website/src/test/java/Utillities/AutomationPractice.xlsx
+++ b/Website/src/test/java/Utillities/AutomationPractice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1rivet-my.sharepoint.com/personal/ujjwal_shrivastava_1rivet_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UjjwalShrivastava\git\PracticeJavaAutomation\Website\src\test\java\Utillities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC10481289DF74685BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF2059A9-D549-4706-A98C-8954FA483C4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452EA0CD-8E77-45D0-8226-B27285E16AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7620" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,35 +27,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Nimrat@yopmail.com</t>
-  </si>
-  <si>
-    <t>Sety@yopmail.com</t>
-  </si>
-  <si>
-    <t>Nehal@yopmail.com</t>
-  </si>
-  <si>
-    <t>Abnc4321</t>
-  </si>
-  <si>
-    <t>Asd843848</t>
-  </si>
-  <si>
-    <t>Aqw112231</t>
-  </si>
-  <si>
-    <t>Micromax@yopmail.com</t>
-  </si>
-  <si>
-    <t>rereerrrrr</t>
+    <t>Ujjwal@123</t>
+  </si>
+  <si>
+    <t>Ujjwal@124</t>
+  </si>
+  <si>
+    <t>Ujjwal@125</t>
+  </si>
+  <si>
+    <t>Ujjwal@126</t>
+  </si>
+  <si>
+    <t>eha1111ql@yopmail.com</t>
+  </si>
+  <si>
+    <t>imra1q1111t@yopmail.com</t>
+  </si>
+  <si>
+    <t>et1111q1y@yopmail.com</t>
+  </si>
+  <si>
+    <t>crom1a1q1111x@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +67,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -379,54 +385,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{17CFC2F0-EC5B-4A4D-B3FE-01960B6CDCD8}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{5BF84D55-9C8C-4C1D-9021-7A3334335337}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{97F6A8B2-EBBE-4BA3-A9A3-B169CD695C08}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{8BD2ACAE-FFD4-4C45-8823-0652F0D06BFE}"/>
+    <hyperlink ref="B1" r:id="rId5" xr:uid="{845A7ECE-EACA-46B5-90BC-10F770757A0A}"/>
+    <hyperlink ref="B2:B4" r:id="rId6" display="Ujjwal@123" xr:uid="{CD1D4DC2-6431-4922-80A6-A8625CF8AF60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
